--- a/data/raw/04 Corpus El_vencedor_español_quechua_chanka.xlsx
+++ b/data/raw/04 Corpus El_vencedor_español_quechua_chanka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jose\UNI\Maestria IA\Cursos\03_Tercer_ciclo\03_Proyecto_Tesis\Proyecto\Diccionarios\Libros_traducidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FERNANDOHC\EDUCACION\MAESTRIA\UNI_MAI\SEMESTRE_4\MIA-403 Proyecto de investigación II\Repositorio\MIA403-TraductorQuechuaEspaniol\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431E9506-17C4-4128-A45B-4BA130F6600A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8B5611-2C72-4370-8353-839636AD08A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B5FB6FF-8987-4023-B311-A9556C830C1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4B5FB6FF-8987-4023-B311-A9556C830C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Chanka" sheetId="2" r:id="rId1"/>
@@ -30,12 +30,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="516">
   <si>
     <t>Alguien lanzó una alerta:</t>
   </si>
@@ -805,45 +808,21 @@
     <t>Mawk’a sombreronta hinallataq chukchantapas rinrinpa qhipachanman allinchaykuspa, chaypitaqmi ch’aki yana niraq yawarpas rikukusqa.</t>
   </si>
   <si>
-    <t>Makiwan	pukllasqankuwan	piñarqachinakus pankumyachaywasimanta	lluqsiypi		iskay warmakuna  takanakuywan  kirunkuta  pakinakurqun.</t>
-  </si>
-  <si>
-    <t>Yachaywasipa punkunpim chaqway karparin.</t>
-  </si>
-  <si>
-    <t>Iskayninku asirinku, muyuriqninpi sayaqkunañataq kallpanchanku aswanraq maqanakunanpaq.</t>
-  </si>
-  <si>
     <t>Iskayninkum qasqunkuta wiñaykachispa millakuywan qawanakunku.</t>
   </si>
   <si>
     <t>Huñunakuqkuna chiqirparinku.</t>
   </si>
   <si>
-    <t>Warmakunam chaqwayninwan ñankunata kichankuraq, wichqankuraq.</t>
-  </si>
-  <si>
-    <t>Kanmi warmakuna, sapa maqa- nakuq	warmakunata	kallpanchaq.</t>
-  </si>
-  <si>
     <t>Qapariykunkum maqanakunanpaq.</t>
   </si>
   <si>
-    <t>Haytapanakunku,	waqachinakunku, asipayanakunku.</t>
-  </si>
-  <si>
     <t>Chaqwallaña qapariy karparin hinaspa llapanku kall- panchanakuspa puriyta qallarinku.</t>
   </si>
   <si>
     <t>Iskaynin maqanakuqkunam ñawpanku.</t>
   </si>
   <si>
-    <t>Ñannintakama rinku hinaspa karu uyarinata qaparispanku rimaykunku, asiykunku.</t>
-  </si>
-  <si>
-    <t>Kunanmi qawanki…</t>
-  </si>
-  <si>
     <t>Aswanmi kallpawan llapanku asiykunku.</t>
   </si>
   <si>
@@ -853,9 +832,6 @@
     <t>Leonidasmi upallarparin hinaspa kirunkunapas takanakunraq.</t>
   </si>
   <si>
-    <t>Uchuy pampaman chayaruspanku, urqu sikipi, llapan warmakuna sayarqunku.</t>
-  </si>
-  <si>
     <t>Hukkaqnin waqamuchkasqa.</t>
   </si>
   <si>
@@ -868,42 +844,18 @@
     <t>Kaqmantapunitaq qaparinku chaqwallaña.</t>
   </si>
   <si>
-    <t>—Juncostapas.</t>
-  </si>
-  <si>
-    <t>—Canciotapas.</t>
-  </si>
-  <si>
-    <t>Qullqita churanku caballokuna llallinachiypi utaq utu- lukuna awqanachiypihina.</t>
-  </si>
-  <si>
     <t>Juncosqa qala chaki warmam karqan.</t>
   </si>
   <si>
-    <t>Takata qawachispan suyarqan, piñallaña, pisipasqahina samaspa.</t>
-  </si>
-  <si>
-    <t>Payqa mana allin pachasqa, qillu uya hinaspa maqanakuy munaqmi.</t>
-  </si>
-  <si>
     <t>Qala chakinpim qawakun chitqasqa talónnin.</t>
   </si>
   <si>
-    <t>Waranmi yuraq bayetamanta, mawkayasqa, ichuq muqun lawpi llikisqa, chaki muquchunkama chayan.</t>
-  </si>
-  <si>
     <t>Umanpi millwamanta rakta chukuyuq.</t>
   </si>
   <si>
     <t>Canciopaqñataqmi mana anchachu qullqita churanku.</t>
   </si>
   <si>
-    <t>Payqa allin warmam karqan, allin ayllupa wawan.</t>
-  </si>
-  <si>
-    <t>Hanay kaq hitanta kachu- parqukuspan qari qarillaña, hatun runahina piñarqukun.</t>
-  </si>
-  <si>
     <t>Musuq zapatuyuqmi karqan.</t>
   </si>
   <si>
@@ -913,114 +865,45 @@
     <t>Leonidas tuqayninta millpurqun.</t>
   </si>
   <si>
-    <t>Cancioqa taka qawachisqanmanta manan kuyurinchu, Juncosmanta harkakuspa.</t>
-  </si>
-  <si>
     <t>Alliq kaq rikranpim qunqaymanta kallpawan taka katkatarachin.</t>
   </si>
   <si>
     <t>Warmakunam kaqmanta kallpanchanku.</t>
   </si>
   <si>
-    <t>Kutirirqamun kasqanman, ñawpaqninta runapa llantun pasarqun.</t>
-  </si>
-  <si>
-    <t>Juncos, qari qarillaña, asiriykuspa.</t>
-  </si>
-  <si>
     <t>Cancioman sayapakuyta qallarini.</t>
   </si>
   <si>
-    <t>Payqa yachaysapa, allin warmam karqan.</t>
-  </si>
-  <si>
     <t>Leonidaspas paywanña kunanqa kachkan.</t>
   </si>
   <si>
-    <t>Leonidas pukayasqa uyayuq, hukmanyasqa puriykachan maqanakuqkunapa muyusqanmanhina.</t>
-  </si>
-  <si>
-    <t>Cancio, takata chaskirquspan pam- paman wichiykunan kachkaptin, Leonidas, utqayllaman hapirqun hinaspa Juncosta kallpawan chiptirqun.</t>
-  </si>
-  <si>
-    <t>—¡Imaynanpim Canciota panyan!</t>
-  </si>
-  <si>
-    <t>—nispa kutichiwan, aswan anchata pukayaspan.</t>
-  </si>
-  <si>
     <t>Chaymanta pampata qawarqun pinqakuqhina.</t>
   </si>
   <si>
     <t>Panyanakuy kaqmanta kallpawan qallarirparin.</t>
   </si>
   <si>
-    <t>Juncosmi pantaykachispa hukta haytarparin, Cancioñataq iskay makinwan takaspa kutichikun, panyaqninpa qasqunpi, kunka tukuq tullupi, kunkanpi, rikranpi, achkallataña kallpawan takapaykun.</t>
-  </si>
-  <si>
-    <t>Juncos mancharikuqhina, mana allintañachu kutipakun.</t>
-  </si>
-  <si>
     <t>Yawar pawarqun.</t>
   </si>
   <si>
-    <t>Canciopa huknin chankanmanta puka qaytuhina lluqsirqan.</t>
-  </si>
-  <si>
-    <t>Qawaq warmakunañataq mana qaparispalla rimanku llallisqan- manta, wakinñataq kuyapayaspanku.</t>
-  </si>
-  <si>
     <t>Qawachkaptillayku Cancio piñarparikun hinaspa kutirparichin.</t>
   </si>
   <si>
-    <t>Canciomantaqa aswan hatun warman pawaykun panyanakusqanku chawpiman hinaspa Canciota maqarqun, chaymanta iskayninkumantaqa aswan hatun warma, pawaykamuqta maqarparin, Cancioman sayapakuspan.</t>
-  </si>
-  <si>
-    <t>Iskay kimsahina segundom chaqwayllaña karparin sapakamaman sayapakuspanku, chaqway chaynallataq takanakuypas qunqaymanta tukurparin, kayta uyarirquspanku: —¡Yachachiq!</t>
-  </si>
-  <si>
     <t>Juncosqa llumpay panyasqam karqun hinaspa mancharisqahinaña.</t>
   </si>
   <si>
-    <t>Mana allin warma, qallariyninpiqa payllaña, kunanqa rinrinpas yawarchasqa, utulupa titalanhina pukayasqa.</t>
-  </si>
-  <si>
-    <t>Huñunasqa warmakunata qawariykun, ñawin- ñataq waqaqhina.</t>
-  </si>
-  <si>
-    <t>Achapasqa mawka pachayuqta, payasopa chukuchayuqta, muqun lawpi llikisqata hinaspa imay- nachá taksalla qala chakinta sarunanmanta ayqichiqta qawaptiymi sunquy nanarquwan.</t>
-  </si>
-  <si>
-    <t>Kaqmanta maqanakuy qallariptinmi kutirispay, masinkunaman huñurqukuni.</t>
-  </si>
-  <si>
     <t>Iskayninkum maqa maqaqllaña sayarqunku.</t>
   </si>
   <si>
-    <t>—Maqamuy…</t>
-  </si>
-  <si>
-    <t>—Maqamuyyá…</t>
-  </si>
-  <si>
-    <t>Juncos qawayllanwan, qallarisun nin.</t>
-  </si>
-  <si>
     <t>Kunkanpi silluwan qasmisqa sirkankunam tunpanta qilluyarqun.</t>
   </si>
   <si>
     <t>Maqtaqa kallpancharparikun.</t>
   </si>
   <si>
-    <t>Kallpawan uyanpi takarparin llalliqhina kachkaptin, pampaman tikrakunankama.</t>
-  </si>
-  <si>
     <t>Intim waqtaykuchkanña.</t>
   </si>
   <si>
-    <t>Mikuy horam tukurqusqaña, yachaywasimanmi kutinayku kachkan.</t>
-  </si>
-  <si>
     <t>Canciota rikranmanta hapiykuspankum apachkanku.</t>
   </si>
   <si>
@@ -1030,157 +913,679 @@
     <t>Waqaqhina uyayuqmi asirin.</t>
   </si>
   <si>
-    <t>Llapankum kirisqa muyurinku, sumaqta rimapayaspanku.</t>
-  </si>
-  <si>
     <t>Ñuqapas qipallantam qatirqani uyan qawayta munaspay.</t>
   </si>
   <si>
     <t>¡Waknata panyarqusqanku!</t>
   </si>
   <si>
-    <t>Taksa warmakunam, kaqmanta kutinku uchuy llaqtaman, paqpakunapa chawpinta.</t>
-  </si>
-  <si>
-    <t>Mana anchata rimaspa, rimankuqa mana qapariqhinalla, llakikuqhina rimanku.</t>
-  </si>
-  <si>
-    <t>Llalliq Juncospas, llakisqam karqan.</t>
-  </si>
-  <si>
-    <t>Llapanmanta rakir- qukuspan purina law rumipi tiyarqun.</t>
-  </si>
-  <si>
     <t>Pimanpas manam qukunchu.</t>
   </si>
   <si>
-    <t>Karullamantam qawanku, imayná nispanku, payñataq pinqakuqhina.</t>
-  </si>
-  <si>
-    <t>Kumuykuspam rumichaku- nawan, qurachakunawan pukllayta qallarin.</t>
-  </si>
-  <si>
-    <t>Kay Juncosmi Canciota panyarqusqa…</t>
-  </si>
-  <si>
-    <t>—Hakuchik —ninmi Leonidas, asuykuspan.</t>
-  </si>
-  <si>
     <t>Juncosñataq mana imatapas ninchu.</t>
   </si>
   <si>
-    <t>Qichiprankama sombreronta chutaykun, chaynaspam uyanta pakarqun.</t>
-  </si>
-  <si>
-    <t>—Hakuchik, Juncos.</t>
-  </si>
-  <si>
     <t>Leonidasmi kumuykuspan qawaykun.</t>
   </si>
   <si>
     <t>Juncosqa waqachkasqam.</t>
   </si>
   <si>
-    <t>—Waqachkanmi —nirqun Leonidas.</t>
-  </si>
-  <si>
-    <t>Lapisqa sombreronta allichaykun, chukchantapas allichaykun rinrinpa hawanman, chaypim kasqa llukllusqa, yanayasqa yawar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hukkaqmi willakamun: </t>
-  </si>
-  <si>
-    <t>hukninmi qala chakilla, mana allin pachayuq.</t>
-  </si>
-  <si>
-    <t>Achka warmakuna, maytukuna aptasqa, piñasqallaña rimaykunku, muyuriqpi sayaspanku, chawpinpiñataq iskay wiñaypura warmakuna maqanakunku:</t>
-  </si>
-  <si>
-    <t>—Yanqam. Yanqam. Manampipashamunchu.Yanqam…</t>
-  </si>
-  <si>
-    <t>—¡Urquchaman! ¡Urquchaman! ¡Hip!… ¡Hip!… ¡Hip!… ¡Hurra!…</t>
-  </si>
-  <si>
     <t>Huk payacha wasi punkunman lluqsimuspan piñallaña kaynata nin:</t>
   </si>
   <si>
-    <t>—¡Juan! ¡Juan! ¡Maqtacha,  maytam  richkanki!</t>
-  </si>
-  <si>
-    <t>—¿Qipakuchkasunchu? —nini.</t>
-  </si>
-  <si>
-    <t>—Arí —niwan—. ¿Juncosta panyaruptinkurí?…</t>
-  </si>
-  <si>
     <t>Maqanakunanpaqmi kallpanchaykunku:</t>
   </si>
   <si>
-    <t>—¡Kawsachun  Cancio! ¡Hip!… ¡hip!… ¡hip!… ¡hurraaaaa!…</t>
-  </si>
-  <si>
-    <t>Ichaqa, piñasqa rimaymi uyarirqukun:</t>
-  </si>
-  <si>
-    <t>—¡Ñawpaq pipas rimarimuqpa, sinqantam pakirqusaq!</t>
-  </si>
-  <si>
-    <t>Chikuchasqahina asiykurqan. Aswanmi achka runakunaña qullqita churanku, paymi llallinqa maqanakuypiqa nispanku.</t>
-  </si>
-  <si>
     <t>Manam piwanpas chiqninakuytaqa maskarqanchu.</t>
   </si>
   <si>
-    <t>Cancioqa allin warmam karqan, ku- nanpas allin kasqanta qawanipunitaq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ñuqa niykuni: </t>
-  </si>
-  <si>
-    <t>—Hina kachun. Ama satikuychu.</t>
-  </si>
-  <si>
-    <t>—¡Allinmi! ¡Allinmi, Juncos!</t>
-  </si>
-  <si>
-    <t>—¡Allinmi! ¡Allinmi! ¡Allinmi, Cancio!</t>
-  </si>
-  <si>
-    <t>—¡Ayayay! ¡Waqarunqam! ¡Waqarunqam!</t>
-  </si>
-  <si>
-    <t>—¡Hina kachun! ¡Hina kachun!</t>
-  </si>
-  <si>
     <t>Taqllakuykunkum. Ancha piñakuymi uyarirqukun.</t>
   </si>
   <si>
-    <t xml:space="preserve">De una gran puñada, asestada con limpieza verdaderamente natural, hizo dar una vuelta a la cabeza contraria, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kallpawan takarparin, manam sasachakunpaschu, panyaqninpa umanta muyurqachinraq, </t>
-  </si>
-  <si>
-    <t>Juncos upayasqa, ñawsayasqahina kallpanchaq masinkunataña takaykun. Chaymanta sasachakuy karparin.</t>
-  </si>
-  <si>
-    <t>¡Yachachiq!… ¡Yachachiq!…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obligando a Juncos a rematar su círculo nervioso, poniéndose de manos, a ciegas, contra el cerco de los suyos. Entonces sucedió una cosa truculenta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinaptinmi, llapa kallpaywan kaynata nini: </t>
-  </si>
-  <si>
-    <t>—¡Yaykuy, Juncos! ¡Kallpawan panyarquy!…</t>
-  </si>
-  <si>
     <t>Había pasado la hora del almuerzo y teníamos que volver directamente a la escuela.</t>
   </si>
   <si>
-    <t xml:space="preserve">A Cancio le llevaban de los brazos. </t>
+    <t>¡El profesor!</t>
+  </si>
+  <si>
+    <t>Mentira.</t>
+  </si>
+  <si>
+    <t>No viene nadie.</t>
+  </si>
+  <si>
+    <t>La pasión infantil abría y cerraba calles en el tumulto.</t>
+  </si>
+  <si>
+    <t>Se formaron partidos por uno y otro de los contrincantes.</t>
+  </si>
+  <si>
+    <t>Estallaban grandes clamores.</t>
+  </si>
+  <si>
+    <t>¡Al cerrillo!</t>
+  </si>
+  <si>
+    <t>¡Hurra!</t>
+  </si>
+  <si>
+    <t>Un estruendoso y confuso vocerío se produjo y la muchedumbre se puso en marcha.</t>
+  </si>
+  <si>
+    <t>¡Juan!</t>
+  </si>
+  <si>
+    <t>Leonidas y yo íbamos muy atrás.</t>
+  </si>
+  <si>
+    <t>Hukkaqmi willakamun:</t>
+  </si>
+  <si>
+    <t>¡Yachachiq!</t>
+  </si>
+  <si>
+    <t>Yanqam.</t>
+  </si>
+  <si>
+    <t>Manampipashamunchu.</t>
+  </si>
+  <si>
+    <t>¡Urquchaman!</t>
+  </si>
+  <si>
+    <t>¿Pero si le pegan a Juncos?</t>
+  </si>
+  <si>
+    <t>Los otros reían estentóreamente.</t>
+  </si>
+  <si>
+    <t>Se hizo un orden frágil.</t>
+  </si>
+  <si>
+    <t>La gritería y la confusión renacieron.</t>
+  </si>
+  <si>
+    <t>Más bien escueto y cetrino y de sabroso genio pendenciero.</t>
+  </si>
+  <si>
+    <t>Sus pies desnudos mostraban los talones rajados.</t>
+  </si>
+  <si>
+    <t>Tocaba su cabeza alborotada un grueso e informe sombrero de lana.</t>
+  </si>
+  <si>
+    <t>Reía como si le hiciesen cosquillas.</t>
+  </si>
+  <si>
+    <t>Las apuestas en su favor crecían.</t>
+  </si>
+  <si>
+    <t>Se mordía el labio superior con altivez y cólera de adulto.</t>
+  </si>
+  <si>
+    <t>Qullqita churanku caballokuna llallinachiypi utaq utulukuna awqanachiypihina.</t>
+  </si>
+  <si>
+    <t>Chikuchasqahina asiykurqan.</t>
+  </si>
+  <si>
+    <t>¡Tres!</t>
+  </si>
+  <si>
+    <t>El tropel se sumió en un silencio trágico.</t>
+  </si>
+  <si>
+    <t>Le alentaron.</t>
+  </si>
+  <si>
+    <t>Cancio empezó a despertar mi simpatía.</t>
+  </si>
+  <si>
+    <t>Era inteligente y noble.</t>
+  </si>
+  <si>
+    <t>Nunca buscó camorra a nadie.</t>
+  </si>
+  <si>
+    <t>Cancio me era simpático y ahora se avivaba esa simpatía.</t>
+  </si>
+  <si>
+    <t>Leonidas también estaba ahora de su parte.</t>
+  </si>
+  <si>
+    <t>No te metas.</t>
+  </si>
+  <si>
+    <t>La lucha se encendió en forma huracanada.</t>
+  </si>
+  <si>
+    <t>Corrió sangre.</t>
+  </si>
+  <si>
+    <t>¡Kimsa!</t>
+  </si>
+  <si>
+    <t>Ñuqa niykuni:</t>
+  </si>
+  <si>
+    <t>Ama satikuychu.</t>
+  </si>
+  <si>
+    <t>¡Bravo!</t>
+  </si>
+  <si>
+    <t>¡Ayayay! ¡Waqarunqam! ¡Waqarunqam!</t>
+  </si>
+  <si>
+    <t>¡Hina kachun! ¡Hina kachun!</t>
+  </si>
+  <si>
+    <t>¡Uyuyuy! ¡Ya va a llorar! ¡Ya va a llorar!</t>
+  </si>
+  <si>
+    <t>¡Déjenlo! ¡Déjenlo!</t>
+  </si>
+  <si>
+    <t>Le poseyó al muchacho un súbito coraje.</t>
+  </si>
+  <si>
+    <t>A Cancio le llevaban de los brazos.</t>
+  </si>
+  <si>
+    <t>Tenía un ojo herido y el párpado muy hinchado.</t>
+  </si>
+  <si>
+    <t>Sonreía tristemente.</t>
+  </si>
+  <si>
+    <t>Se apartó de todos y fue a sentarse en un poyo del sendero.</t>
+  </si>
+  <si>
+    <t>Nadie le hizo caso.</t>
+  </si>
+  <si>
+    <t>Bajó la frente y empezó a jugar con piedrecillas y briznas de hierba.</t>
+  </si>
+  <si>
+    <t>Juncos no respondió.</t>
+  </si>
+  <si>
+    <t>Leonidas se inclinó a verle.</t>
+  </si>
+  <si>
+    <t>Llapanmanta rakirqukuspan purina law rumipi tiyarqun.</t>
+  </si>
+  <si>
+    <t>Huñunasqa warmakunata qawariykun ñawin- ñataq waqaqhina.</t>
+  </si>
+  <si>
+    <t>Juncos qawayllanwan qallarisun nin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinaptinmi llapa kallpaywan kaynata nini: </t>
+  </si>
+  <si>
+    <t>Warmakunam chaqwayninwan ñankunata kichankuraq wichqankuraq.</t>
+  </si>
+  <si>
+    <t>Kanmi warmakuna sapa maqa- nakuq	warmakunata	kallpanchaq.</t>
+  </si>
+  <si>
+    <t>Ichaqa piñasqa rimaymi uyarirqukun:</t>
+  </si>
+  <si>
+    <t>Payqa mana allin pachasqa qillu uya hinaspa maqanakuy munaqmi.</t>
+  </si>
+  <si>
+    <t>Aswanmi achka runakunaña qullqita churanku paymi llallinqa maqanakuypiqa nispanku.</t>
+  </si>
+  <si>
+    <t>Hanay kaq hitanta kachuparqukuspan qari qarillaña hatun runahina piñarqukun.</t>
+  </si>
+  <si>
+    <t>Kutirirqamun kasqanman ñawpaqninta runapa llantun pasarqun.</t>
+  </si>
+  <si>
+    <t>Payqa yachaysapa allin warmam karqan.</t>
+  </si>
+  <si>
+    <t>Cancioqa allin warmam karqan kunanpas allin kasqanta qawanipunitaq.</t>
+  </si>
+  <si>
+    <t>Kallpawan uyanpi takarparin llalliqhina kachkaptin pampaman tikrakunankama.</t>
+  </si>
+  <si>
+    <t>Mikuy horam tukurqusqaña yachaywasimanmi kutinayku kachkan.</t>
+  </si>
+  <si>
+    <t>Kumuykuspam rumichakunawan qurachakunawan pukllayta qallarin.</t>
+  </si>
+  <si>
+    <t>Qichiprankama sombreronta chutaykun chaynaspam uyanta pakarqun.</t>
+  </si>
+  <si>
+    <t>di una vuelta</t>
+  </si>
+  <si>
+    <t>y me pasé a los suyos.</t>
+  </si>
+  <si>
+    <t>uno de ellos descalzo</t>
+  </si>
+  <si>
+    <t>y pobremente vestido.</t>
+  </si>
+  <si>
+    <t>los muchachos hacían una algazara ensordecedora.</t>
+  </si>
+  <si>
+    <t>hijo de buena familia.</t>
+  </si>
+  <si>
+    <t>reduciéndose a parar las acometidas de Juncos.</t>
+  </si>
+  <si>
+    <t>poniéndose aún más colorado.</t>
+  </si>
+  <si>
+    <t>defendiéndose con escaramuzas inútiles.</t>
+  </si>
+  <si>
+    <t>¡Pégale duro!</t>
+  </si>
+  <si>
+    <t>prodigándole palabras fraternales.</t>
+  </si>
+  <si>
+    <t>¡Allinmi!</t>
+  </si>
+  <si>
+    <t>masinkunaman huñurqukuni.</t>
+  </si>
+  <si>
+    <t>mana allin pachayuq.</t>
+  </si>
+  <si>
+    <t>Ñannintakama rinku</t>
+  </si>
+  <si>
+    <t>asiykunku.</t>
+  </si>
+  <si>
+    <t>allin ayllupa wawan.</t>
+  </si>
+  <si>
+    <t>Juncosmanta harkakuspa.</t>
+  </si>
+  <si>
+    <t>aswan anchata pukayaspan.</t>
+  </si>
+  <si>
+    <t>mana allintañachu kutipakun.</t>
+  </si>
+  <si>
+    <t>¡Kallpawan panyarquy!</t>
+  </si>
+  <si>
+    <t>sumaqta rimapayaspanku.</t>
+  </si>
+  <si>
+    <t>hizo dar una vuelta a la cabeza contraria.</t>
+  </si>
+  <si>
+    <t>a semejanza de una cresta de gallo.</t>
+  </si>
+  <si>
+    <t>alargó la mano canija</t>
+  </si>
+  <si>
+    <t>y dio un buen pellizcón a Juncos.</t>
+  </si>
+  <si>
+    <t>panyaqninpa umanta muyurqachinraq.</t>
+  </si>
+  <si>
+    <t>utulupa titalanhina pukayasqa.</t>
+  </si>
+  <si>
+    <t>utqayllaman hapirqun</t>
+  </si>
+  <si>
+    <t>hinaspa Juncosta kallpawan chiptirqun.</t>
+  </si>
+  <si>
+    <t>Por Cancio en cambio las apuestas eran menores.</t>
+  </si>
+  <si>
+    <t>Un puñetazo en el costado derecho esgrimido con todo el brazo contrario le hizo tambalear.</t>
+  </si>
+  <si>
+    <t>hukninmi qala chakilla</t>
+  </si>
+  <si>
+    <t>hinaspa karu uyarinata qaparispanku</t>
+  </si>
+  <si>
+    <t>Ellos se miraban echándose los convexos pechos con aire de recíproco desprecio.</t>
+  </si>
+  <si>
+    <t>También yo le seguía de cerca tratando de verle el rostro.</t>
+  </si>
+  <si>
+    <t>dos niños poco más o menos de la misma edad</t>
+  </si>
+  <si>
+    <t>¡Bravo Juncos!</t>
+  </si>
+  <si>
+    <t>¡Allinmi Juncos!</t>
+  </si>
+  <si>
+    <t>¡Bravo Cancio!</t>
+  </si>
+  <si>
+    <t>¡Allinmi Cancio!</t>
+  </si>
+  <si>
+    <t>Al reanudarse la pelea</t>
+  </si>
+  <si>
+    <t>Kaqmanta maqanakuy qallariptinmi kutirispay</t>
+  </si>
+  <si>
+    <t>¡A dónde vas mocito!</t>
+  </si>
+  <si>
+    <t>¡Maqtacha maytam richkanki!</t>
+  </si>
+  <si>
+    <t>Era éste un niño decente</t>
+  </si>
+  <si>
+    <t>Payqa allin warmam karqan</t>
+  </si>
+  <si>
+    <t>Cancio no se movía de su guardia</t>
+  </si>
+  <si>
+    <t>Cancioqa taka qawachisqanmanta manan kuyurinchu</t>
+  </si>
+  <si>
+    <t>me respondió</t>
+  </si>
+  <si>
+    <t>nispa kutichiwan</t>
+  </si>
+  <si>
+    <t>Juncos vaciló</t>
+  </si>
+  <si>
+    <t>Juncos mancharikuqhina</t>
+  </si>
+  <si>
+    <t>¡Entra Juncos!</t>
+  </si>
+  <si>
+    <t>¡Yaykuy Juncos!</t>
+  </si>
+  <si>
+    <t>Todos le rodeaban lacerados</t>
+  </si>
+  <si>
+    <t>Llapankum kirisqa muyurinku</t>
+  </si>
+  <si>
+    <t>Vámonos Juncos.</t>
+  </si>
+  <si>
+    <t>Hakuchik Juncos.</t>
+  </si>
+  <si>
+    <t>De una gran puñada</t>
+  </si>
+  <si>
+    <t>Kallpawan takarparin</t>
+  </si>
+  <si>
+    <t>asestada con limpieza verdaderamente natural</t>
+  </si>
+  <si>
+    <t>manam sasachakunpaschu</t>
+  </si>
+  <si>
+    <t>El humilde granuja</t>
+  </si>
+  <si>
+    <t>Mana allin warma</t>
+  </si>
+  <si>
+    <t>al principio tan dueño de sí mismo</t>
+  </si>
+  <si>
+    <t>qallariyninpiqa payllaña</t>
+  </si>
+  <si>
+    <t>tenía el pabellón de una oreja ensangrentado y encendido</t>
+  </si>
+  <si>
+    <t>kunanqa rinrinpas yawarchasqa</t>
+  </si>
+  <si>
+    <t>a una puñada del héroe contrario</t>
+  </si>
+  <si>
+    <t>takata chaskirquspan pampaman wichiykunan kachkaptin</t>
+  </si>
+  <si>
+    <t>risotadas.</t>
+  </si>
+  <si>
+    <t>se detuvo el tropel.</t>
+  </si>
+  <si>
+    <t>sonreía.</t>
+  </si>
+  <si>
+    <t>entre las pencas del camino.</t>
+  </si>
+  <si>
+    <t>y él parecía avergonzado.</t>
+  </si>
+  <si>
+    <t>Haytapanakunku</t>
+  </si>
+  <si>
+    <t>waqachinakunku</t>
+  </si>
+  <si>
+    <t>asipayanakunku.</t>
+  </si>
+  <si>
+    <t>Uchuy pampaman chayaruspanku</t>
+  </si>
+  <si>
+    <t>urqu sikipi</t>
+  </si>
+  <si>
+    <t>llapan warmakuna sayarqunku.</t>
+  </si>
+  <si>
+    <t>Juncos</t>
+  </si>
+  <si>
+    <t>qari qarillaña</t>
+  </si>
+  <si>
+    <t>asiriykuspa.</t>
+  </si>
+  <si>
+    <t>Taksa warmakunam</t>
+  </si>
+  <si>
+    <t>kaqmanta kutinku uchuy llaqtaman</t>
+  </si>
+  <si>
+    <t>paqpakunapa chawpinta.</t>
+  </si>
+  <si>
+    <t>Karullamantam qawanku</t>
+  </si>
+  <si>
+    <t>imayná nispanku</t>
+  </si>
+  <si>
+    <t>payñataq pinqakuqhina.</t>
+  </si>
+  <si>
+    <t>Hubo puntapiés</t>
+  </si>
+  <si>
+    <t>llantos</t>
+  </si>
+  <si>
+    <t>Llegados a una pequeña explanada</t>
+  </si>
+  <si>
+    <t>al pie de un cerro de la campiña</t>
+  </si>
+  <si>
+    <t>finteando</t>
+  </si>
+  <si>
+    <t>El grupo de pequeños avanzaba</t>
+  </si>
+  <si>
+    <t>de vuelta a la aldea</t>
+  </si>
+  <si>
+    <t>Le veían de lejos</t>
+  </si>
+  <si>
+    <t>con extrañeza</t>
+  </si>
+  <si>
+    <t>¿Vamos quedándonos?</t>
+  </si>
+  <si>
+    <t>¿Qipakuchkasunchu?</t>
+  </si>
+  <si>
+    <t>le dije.</t>
+  </si>
+  <si>
+    <t>nini.</t>
+  </si>
+  <si>
+    <t>Bueno me respondió.</t>
+  </si>
+  <si>
+    <t>Arí niwan.</t>
+  </si>
+  <si>
+    <t>¡Viva Cancio!</t>
+  </si>
+  <si>
+    <t>¡Kawsachun Cancio!</t>
+  </si>
+  <si>
+    <t>¡Al primero que hable le rompo las narices!</t>
+  </si>
+  <si>
+    <t>¡Ñawpaq pipas rimarimuqpa sinqantam pakirqusaq!</t>
+  </si>
+  <si>
+    <t>Voy a Juncos.</t>
+  </si>
+  <si>
+    <t>Juncostapas.</t>
+  </si>
+  <si>
+    <t>Voy a Cancio.</t>
+  </si>
+  <si>
+    <t>Canciotapas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déjalo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hina kachun. </t>
+  </si>
+  <si>
+    <t>¡Y por qué le pega a Cancio!</t>
+  </si>
+  <si>
+    <t>¡Imaynanpim Canciota panyan!</t>
+  </si>
+  <si>
+    <t>Vámonos le dijo Leonidas acercándose.</t>
+  </si>
+  <si>
+    <t>Hakuchik ninmi Leonidas asuykuspan.</t>
+  </si>
+  <si>
+    <t>Está llorando dijo Leonidas.</t>
+  </si>
+  <si>
+    <t>Waqachkanmi nirqun Leonidas.</t>
+  </si>
+  <si>
+    <t>¡El profesor! ¡El profesor!</t>
+  </si>
+  <si>
+    <t>¡Yachachiq! ¡Yachachiq!</t>
+  </si>
+  <si>
+    <t>Pega</t>
+  </si>
+  <si>
+    <t>Maqamuy</t>
+  </si>
+  <si>
+    <t>Pega nomás</t>
+  </si>
+  <si>
+    <t>Maqamuyyá</t>
+  </si>
+  <si>
+    <t>Mentira</t>
+  </si>
+  <si>
+    <t>Yanqam</t>
+  </si>
+  <si>
+    <t>¡Hip!</t>
+  </si>
+  <si>
+    <t>Vas a ver</t>
+  </si>
+  <si>
+    <t>Kunanmi qawanki</t>
+  </si>
+  <si>
+    <t>¿Juncosta panyaruptinkurí?</t>
+  </si>
+  <si>
+    <t>¡hurraaaaa!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Uno! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Huk! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Dos! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Iskay! </t>
+  </si>
+  <si>
+    <t>Le había pegado a Cancio este Juncos</t>
+  </si>
+  <si>
+    <t>Kay Juncosmi Canciota panyarqusqa</t>
   </si>
 </sst>
 </file>
@@ -1224,9 +1629,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1542,1008 +1946,1216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D639E4FB-B04F-45F3-86E5-73411ED47716}">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:XFD105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.44140625" customWidth="1"/>
+    <col min="1" max="1" width="52.5546875" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>501</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>409</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>304</v>
       </c>
       <c r="B20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>268</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>503</v>
+      </c>
+      <c r="B21" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>306</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="B25" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>358</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>505</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>506</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>475</v>
+      </c>
+      <c r="B37" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>477</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>479</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>480</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>481</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>505</v>
       </c>
       <c r="B45" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>286</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>509</v>
+      </c>
+      <c r="B46" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="B47" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>42</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>483</v>
+      </c>
+      <c r="B50" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>485</v>
       </c>
       <c r="B51" t="s">
-        <v>290</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>487</v>
       </c>
       <c r="B52" t="s">
-        <v>291</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s">
-        <v>294</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
       <c r="B58" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="B59" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>327</v>
       </c>
       <c r="B61" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>510</v>
       </c>
       <c r="B63" t="s">
-        <v>300</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>512</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>366</v>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>330</v>
+      </c>
+      <c r="B65" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>367</v>
+        <v>331</v>
+      </c>
+      <c r="B66" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>406</v>
       </c>
       <c r="B68" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="B69" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>333</v>
       </c>
       <c r="B71" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>334</v>
       </c>
       <c r="B72" t="s">
-        <v>307</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>335</v>
       </c>
       <c r="B73" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>177</v>
+        <v>336</v>
       </c>
       <c r="B74" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c r="B75" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="B76" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>489</v>
       </c>
       <c r="B77" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="B78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>371</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>491</v>
+      </c>
+      <c r="B79" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s">
-        <v>372</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>339</v>
       </c>
       <c r="B81" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="B82" t="s">
-        <v>374</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="B83" t="s">
-        <v>375</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="B85" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>350</v>
       </c>
       <c r="B87" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>196</v>
+        <v>351</v>
       </c>
       <c r="B88" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>197</v>
+        <v>352</v>
       </c>
       <c r="B89" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="B90" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B91" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>353</v>
       </c>
       <c r="B92" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>354</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="B94" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>514</v>
       </c>
       <c r="B95" t="s">
-        <v>322</v>
+        <v>515</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>493</v>
       </c>
       <c r="B96" t="s">
-        <v>323</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>356</v>
       </c>
       <c r="B97" t="s">
-        <v>378</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="B98" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>210</v>
+        <v>357</v>
       </c>
       <c r="B99" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="B100" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>326</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>495</v>
+      </c>
+      <c r="B101" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="B102" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="B103" t="s">
-        <v>328</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
       <c r="B104" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>222</v>
+        <v>416</v>
       </c>
       <c r="B105" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>224</v>
+        <v>375</v>
       </c>
       <c r="B106" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="B107" t="s">
-        <v>332</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>227</v>
+        <v>411</v>
       </c>
       <c r="B108" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>230</v>
+        <v>377</v>
       </c>
       <c r="B109" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="B110" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>234</v>
+        <v>379</v>
       </c>
       <c r="B111" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>235</v>
+        <v>418</v>
       </c>
       <c r="B112" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>238</v>
+        <v>420</v>
       </c>
       <c r="B113" t="s">
-        <v>338</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="B114" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>242</v>
+        <v>422</v>
       </c>
       <c r="B115" t="s">
-        <v>340</v>
+        <v>423</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>424</v>
       </c>
       <c r="B117" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="B118" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>247</v>
+        <v>426</v>
       </c>
       <c r="B119" t="s">
-        <v>344</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>28</v>
+        <v>383</v>
       </c>
       <c r="B120" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>249</v>
+        <v>428</v>
       </c>
       <c r="B121" t="s">
-        <v>346</v>
+        <v>429</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>250</v>
+        <v>384</v>
       </c>
       <c r="B122" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>253</v>
+        <v>430</v>
       </c>
       <c r="B123" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>385</v>
       </c>
       <c r="B124" t="s">
-        <v>349</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>432</v>
+      </c>
+      <c r="B125" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>434</v>
+      </c>
+      <c r="B126" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>436</v>
+      </c>
+      <c r="B127" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>397</v>
+      </c>
+      <c r="B128" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>438</v>
+      </c>
+      <c r="B129" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>440</v>
+      </c>
+      <c r="B130" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>442</v>
+      </c>
+      <c r="B131" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>398</v>
+      </c>
+      <c r="B132" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>444</v>
+      </c>
+      <c r="B133" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>399</v>
+      </c>
+      <c r="B134" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>466</v>
+      </c>
+      <c r="B136" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>467</v>
+      </c>
+      <c r="B137" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>446</v>
+      </c>
+      <c r="B138" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>468</v>
+      </c>
+      <c r="B139" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>469</v>
+      </c>
+      <c r="B140" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>447</v>
+      </c>
+      <c r="B141" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>457</v>
+      </c>
+      <c r="B142" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>470</v>
+      </c>
+      <c r="B143" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>448</v>
+      </c>
+      <c r="B144" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>471</v>
+      </c>
+      <c r="B145" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>472</v>
+      </c>
+      <c r="B146" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>449</v>
+      </c>
+      <c r="B147" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>473</v>
+      </c>
+      <c r="B148" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>474</v>
+      </c>
+      <c r="B149" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>450</v>
+      </c>
+      <c r="B150" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
